--- a/excel01/Book1.xlsx
+++ b/excel01/Book1.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20346"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10212"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{401B1EB1-70FD-4E64-A7A9-1AA6824C9183}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49B7CEBE-A2A0-CA42-AA71-E2AA67022FAC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6240" yWindow="6200" windowWidth="22260" windowHeight="12640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,21 +20,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="2">
   <si>
-    <t>A1</t>
+    <t>9:00</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>A2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>B1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>B2</t>
+    <t>17:30</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -42,7 +34,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -57,6 +49,19 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="ＭＳ 明朝"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐ明朝"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -66,7 +71,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -74,12 +79,109 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -360,31 +462,38 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:8">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>3</v>
+      <c r="C1" s="3"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="5" t="s">
+        <v>0</v>
       </c>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="7"/>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+  </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
